--- a/Tuyensinh.xlsx
+++ b/Tuyensinh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="94">
   <si>
     <t>Công nghệ kỹ thuật ô tô</t>
-  </si>
-  <si>
-    <t>Công nghệ kỹ thuật điện, điện tử</t>
   </si>
   <si>
     <t>Công nghệ chế tạo máy</t>
@@ -67,20 +64,346 @@
     <t>http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-dao-tao-dai-hoc-he-chinh-quy-nam-2021.html</t>
   </si>
   <si>
-    <t>ngành</t>
-  </si>
-  <si>
-    <t>mã ngành</t>
-  </si>
-  <si>
-    <t>khối thi</t>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Điểm 2021</t>
+  </si>
+  <si>
+    <t>Xét tuyển theo học bạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Học phí</t>
+  </si>
+  <si>
+    <t>Cấp</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>Khoa Cơ Khí Động Lực</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật điện-điện tử</t>
+  </si>
+  <si>
+    <t>Khoa Điện</t>
+  </si>
+  <si>
+    <t>Khoa Cơ Khí Chế Tạo</t>
+  </si>
+  <si>
+    <t>Khoa Công Nghệ Thông Tin</t>
+  </si>
+  <si>
+    <t>Khoa Điện Tử</t>
+  </si>
+  <si>
+    <t>Khoa Sư Phạm Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>Khoa Kinh Tế</t>
+  </si>
+  <si>
+    <t>Công nghệ chế tạo máy</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Điện công nghiệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6520227</t>
+  </si>
+  <si>
+    <t>Điện tử công nghiệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6520225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6510202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6340301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6340114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Kế toán doanh nghiệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6340302</t>
+  </si>
+  <si>
+    <t>Kỹ thuật máy lạnh và điều hòa không khí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6510305</t>
+  </si>
+  <si>
+    <t>Kỹ thuật lắp đặt điện và điều khiển trong CN</t>
+  </si>
+  <si>
+    <t>Quản trị mạng máy tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Nguội sửa chữa máy công cụ</t>
+  </si>
+  <si>
+    <t>Cắt gọt kim loại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6520121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6510304</t>
+  </si>
+  <si>
+    <t>Chế tạo thiết bị cơ khí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6520113</t>
+  </si>
+  <si>
+    <t>Cấp thoát nước</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6520312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Maketing thương mại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6340137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Công tác xã hội</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6760101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Bảo trì hệ thống thiết bị cơ khí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6520151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Kỹ thuật sửa chữa, lắp ráp  máy tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+6480102</t>
+  </si>
+  <si>
+    <t>Công nghệ kỹ thuật điện, điện tử</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+6510303</t>
+  </si>
+  <si>
+    <t>Cao Đẳng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công nghệ kỹ thuật cơ điện tử</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lắp đặt thiết bị cơ khí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công nghệ kỹ thuật điện tử, truyền thông</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công nghệ kỹ thuật ô tô</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hàn</t>
+  </si>
+  <si>
+    <t>http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-cao-dang-he-chinh-quy-nam-2021.html</t>
+  </si>
+  <si>
+    <t>Học phí đối với hệ đại học năm học 2020-2021 ( 5.040.000/học kỳ-tương đương 18 tín chỉ )
+- Học phần lý thuyết : 320.000/tín chỉ
+- Học phần thực hành: 365.000/tín chỉ</t>
+  </si>
+  <si>
+    <t>Ngành</t>
+  </si>
+  <si>
+    <t>Học phí đối với hệ Cao đẳng năm học 2020-2021 ( 4.000.000/học kỳ-tương đương 16 tín chỉ )
+- Học phần lý thuyết : 275.000/tín chỉ
+- Học phần thực hành: 297.000/tín chỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thạc Sĩ </t>
+  </si>
+  <si>
+    <t>Kỹ Thuật Cơ Khí</t>
+  </si>
+  <si>
+    <t>Kỹ Thuật Điện</t>
+  </si>
+  <si>
+    <t>Sư Phạm Kỹ Thuật Điện</t>
+  </si>
+  <si>
+    <t>Sư Phạm Kĩ Thuật Ô-tô</t>
+  </si>
+  <si>
+    <t>Học phí hệ Thạc Sĩ : năm học 2020- 2021 học phí là: 540.000 đ/tín chỉ, 8.100.000/kỳ (tương đương 15 tín chỉ), các năm sẽ điều chỉnh theo quy định của Bộ.</t>
+  </si>
+  <si>
+    <t>Phương thức đăng ký xét tuyển và hồ sơ xét tuyển</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Phương thức đăng ký xét tuyển: Thí sinh nộp hồ sơ đăng ký xét tuyển trực tiếp hoặc gửi qua đường Bưu điện cho Nhà trường hoặc truy cập vào website: www.tuyensinh.vuted.edu.vn, mục “XÉT TUYỂN TRỰC TUYẾN” để thực hiện đăng ký xét tuyển online.
+     - Hồ sơ xét tuyển theo kết quả thi tốt nghiệp THPT năm 2021: Thí sinh nộp hồ sơ ĐKXT tại các trường THPT hoặc tại các Sở GD&amp;ĐT.
+     - Hồ sơ xét tuyển theo kết quả học tập THPT (học bạ) bao gồm:
+     + Phiếu đăng ký xét tuyển (theo mẫu, có thể tải từ Website của Nhà trường).
+     + Học bạ THPT (bản photocopy có công chứng).
+     + Bằng tốt nghiệp hoặc Giấy chứng nhận tốt nghiệp THPT tạm thời đối với thí sinh tốt nghiệp năm 2021(bản photocopy có công chứng).
+     + Chứng minh nhân dân (bản photocopy có công chứng)
+     + Các giấy tờ chứng nhận ưu tiên (nếu có).
+     + 01 Phong bì ghi rõ họ tên, số điện thoại, địa chỉ của người nhận.</t>
+  </si>
+  <si>
+    <t>http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-thac-si-dot-1-nam-2021.html</t>
+  </si>
+  <si>
+    <t>Thi xét tuyển 3 môn: Tiếng Anh-
+Sức bền vật liệu-
+Công nghệ chế tạo máy</t>
+  </si>
+  <si>
+    <t>Thi xét tuyển 3 môn: Tiếng Anh-Lý thuyết mạch-Cung cấp điện
+Sức bền vật liệu-
+Công nghệ chế tạo máy</t>
+  </si>
+  <si>
+    <t>Thi xét tuyển 3 môn: Tiếng anh-Tâm Lí Học-Lý luận dạy học kỹ thuật</t>
+  </si>
+  <si>
+    <t>xét từ điểm cao xuống thấp theo từng ngành đào tạo (có cộng điểm ưu tiên theo quy định). Thí sinh có thể dùng một trong bốn tổ hợp trên để xét tuyển vào các ngành đào tạo của trường.</t>
+  </si>
+  <si>
+    <t>Xét tuyển theo kết quả thi THPT</t>
+  </si>
+  <si>
+    <r>
+      <t>Điểm xét tuyển theo kết quả học tập THPT = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điểm học tập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> × 3 + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điểm ưu tiên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+Điểm học tập được tính theo một trong hai cách sau:
+■ Cách 1: Điểm học tập là điểm trung bình 5 học kỳ (Học kỳ 1, học kỳ 2 lớp 10; Học kỳ 1, học kỳ 2 lớp 11; Học kỳ 1 lớp 12) theo tổ hợp môn xét tuyển.
+■ Cách 2. Điểm học tập là điểm trung bình năm lớp 12 theo tổ hợp môn xét tuyển.
+Điểm học tập làm tròn đến 1 chữ số thập phân.
+Điểm ưu tiên: là tổng điểm ưu tiên theo khu vực và đối tượng (theo Quy chế tuyển sinh hiện hành).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Điểm xét tuyển theo kết quả thi tốt nghiệp THPT = Tổng điểm ba môn theo tổ hợp môn xét tuyển + Điểm ưu tiên.
+  Điểm ưu tiên: là tổng điểm ưu tiên theo khu vực và đối tượng (theo Quy chế tuyển sinh hiện hành).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Phiếu đăng ký xét tuyển (theo mẫu);
+- Bản sao hợp lệ giấy chứng nhận kết quả thi THPT năm 2021 (xét theo phương thức 1) hoặc bản sao học bạ THPT (xét theo phương thức 2);
+- Bản sao hợp lệ bằng tốt nghiệp THPT hoặc giấy chứng nhận tốt nghiệp tạm thời;
+- Chứng minh nhân dân (bản sao công chứng);
+- Các giấy tờ chứng nhận ưu tiên (nếu có);
+- 02 Phong bì có dán tem, ghi rõ địa chị nơi ở để nhà trường gửi giấy báo nhập học.L16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hồ sơ dự thi bao gồm (*):
+a. Đơn xin dự thi;
+b. Bản sao văn bằng tốt nghiệp, bảng điểm (công chứng), các chứng chỉ đã chuyển đổi kiến thức (nếu có). Thí sinh học đại học liên thông, văn bằng hai thì phải có bản sao Bằng và Bảng điểm của bậc học trước đó. Thí sinh có bằng tốt nghiệp đại học do cơ sở đào tạo ở nước ngoài cấp thì phải có văn bản xác nhận văn bằng đại học của Cục Khảo thí và kiểm định chất lượng giáo dục, Bộ GD&amp;ĐT;
+c. Sơ yếu lý lịch có xác nhận của cơ quan hoặc chính quyền địa phương;
+d. Giấy chứng nhận đủ sức khoẻ (của bệnh viện đa khoa, có thời hạn trong vòng 6 tháng);
+e. Chứng minh thư (photo);
+f. 04 ảnh hồ sơ cỡ 3 x 4 cm; 02 phong bì ghi rõ địa chỉ liên lạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xét từ điểm cao xuống thấp theo từng ngành đào tạo (có cộng điểm ưu tiên theo quy định). Thí sinh có thể dùng một trong bốn tổ hợp trên để xét tuyển vào các ngành đào tạo của trường.</t>
+  </si>
+  <si>
+    <t>Mã ngành</t>
+  </si>
+  <si>
+    <t>Khối thi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,25 +412,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF657184"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF657184"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,26 +504,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,248 +855,1627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="147.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="2">
         <v>7510205</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
         <v>7510301</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>7510202</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>7510201</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>7480201</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>7480108</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
         <v>7510302</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
         <v>7510303</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
         <v>7140214</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="16">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
         <v>7340301</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="I11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7340101</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
-        <v>7340101</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E13" s="2">
+        <v>7340404</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="16">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="B14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6510212</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6480201</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>7340404</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8">
+        <v>6520123</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6510201</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="8">
+        <v>6520205</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="8">
+        <v>6520201</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="8">
+        <v>6480210</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8">
+        <v>6520126</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8">
+        <v>6520104</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="8">
+        <v>6510312</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E13" r:id="rId2" display="http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-dao-tao-dai-hoc-he-chinh-quy-nam-2021.html"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3:G13" r:id="rId2" display="http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-dao-tao-dai-hoc-he-chinh-quy-nam-2021.html"/>
+    <hyperlink ref="G14" r:id="rId3"/>
+    <hyperlink ref="G15:G38" r:id="rId4" display="http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-cao-dang-he-chinh-quy-nam-2021.html"/>
+    <hyperlink ref="G39" r:id="rId5"/>
+    <hyperlink ref="G40" r:id="rId6"/>
+    <hyperlink ref="G41:G43" r:id="rId7" display="http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-thac-si-dot-1-nam-2021.html"/>
+    <hyperlink ref="G43" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Tuyensinh.xlsx
+++ b/Tuyensinh.xlsx
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Khoa</t>
-  </si>
-  <si>
-    <t>Điểm 2021</t>
   </si>
   <si>
     <t>Xét tuyển theo học bạ</t>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Khối thi</t>
+  </si>
+  <si>
+    <t>Điểm năm 2021</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -883,37 +883,37 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -942,16 +942,16 @@
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -959,13 +959,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>7510301</v>
@@ -980,16 +980,16 @@
         <v>15</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -997,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1018,16 +1018,16 @@
         <v>15</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1035,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1056,16 +1056,16 @@
         <v>15</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1073,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -1094,16 +1094,16 @@
         <v>15</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1111,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -1132,16 +1132,16 @@
         <v>15</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1149,10 +1149,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1170,16 +1170,16 @@
         <v>15</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1187,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -1208,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K9" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1225,10 +1225,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -1246,16 +1246,16 @@
         <v>19</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1263,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1284,16 +1284,16 @@
         <v>15</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1301,10 +1301,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1316,22 +1316,22 @@
         <v>12</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="16">
         <v>15</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1339,10 +1339,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -1360,16 +1360,16 @@
         <v>15</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1377,13 +1377,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8">
         <v>6510212</v>
@@ -1392,22 +1392,22 @@
         <v>12</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1415,13 +1415,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8">
         <v>6480201</v>
@@ -1430,22 +1430,22 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1453,37 +1453,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1491,37 +1491,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1529,13 +1529,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8">
         <v>6520123</v>
@@ -1544,22 +1544,22 @@
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1567,10 +1567,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>2</v>
@@ -1582,22 +1582,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1605,37 +1605,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1643,37 +1643,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1681,37 +1681,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1719,37 +1719,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="8">
         <v>6520205</v>
@@ -1772,22 +1772,22 @@
         <v>12</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1795,37 +1795,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1833,13 +1833,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="8">
         <v>6520201</v>
@@ -1848,22 +1848,22 @@
         <v>12</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1871,13 +1871,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="8">
         <v>6480210</v>
@@ -1886,22 +1886,22 @@
         <v>12</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1909,13 +1909,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="8">
         <v>6520126</v>
@@ -1924,22 +1924,22 @@
         <v>12</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1947,37 +1947,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="F29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1985,37 +1985,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="8">
         <v>6520104</v>
@@ -2038,22 +2038,22 @@
         <v>12</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2061,37 +2061,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2099,37 +2099,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2137,37 +2137,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2175,37 +2175,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="F35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2213,37 +2213,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="F36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2251,37 +2251,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="F37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2289,13 +2289,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="8">
         <v>6510312</v>
@@ -2304,22 +2304,22 @@
         <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -2327,37 +2327,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
@@ -2365,25 +2365,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
@@ -2391,25 +2391,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
@@ -2417,25 +2417,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
@@ -2443,25 +2443,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="L43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Tuyensinh.xlsx
+++ b/Tuyensinh.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$43</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -277,9 +280,6 @@
   </si>
   <si>
     <t>Học phí hệ Thạc Sĩ : năm học 2020- 2021 học phí là: 540.000 đ/tín chỉ, 8.100.000/kỳ (tương đương 15 tín chỉ), các năm sẽ điều chỉnh theo quy định của Bộ.</t>
-  </si>
-  <si>
-    <t>Phương thức đăng ký xét tuyển và hồ sơ xét tuyển</t>
   </si>
   <si>
     <t xml:space="preserve"> - Phương thức đăng ký xét tuyển: Thí sinh nộp hồ sơ đăng ký xét tuyển trực tiếp hoặc gửi qua đường Bưu điện cho Nhà trường hoặc truy cập vào website: www.tuyensinh.vuted.edu.vn, mục “XÉT TUYỂN TRỰC TUYẾN” để thực hiện đăng ký xét tuyển online.
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Điểm năm 2021</t>
+  </si>
+  <si>
+    <t>Hồ sơ xét tuyển</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -892,28 +896,28 @@
         <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -942,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -980,19 +984,19 @@
         <v>15</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1018,19 +1022,19 @@
         <v>15</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1056,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
@@ -1094,19 +1098,19 @@
         <v>15</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1132,19 +1136,19 @@
         <v>15</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1170,19 +1174,19 @@
         <v>15</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1208,19 +1212,19 @@
         <v>15</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1246,19 +1250,19 @@
         <v>19</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1284,19 +1288,19 @@
         <v>15</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1322,19 +1326,19 @@
         <v>15</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1360,19 +1364,19 @@
         <v>15</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1395,19 +1399,19 @@
         <v>68</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1433,22 +1437,22 @@
         <v>68</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1471,22 +1475,22 @@
         <v>68</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1509,22 +1513,22 @@
         <v>68</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1547,22 +1551,22 @@
         <v>68</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1585,22 +1589,22 @@
         <v>68</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1623,22 +1627,22 @@
         <v>68</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1661,22 +1665,22 @@
         <v>68</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1699,22 +1703,22 @@
         <v>68</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1737,22 +1741,22 @@
         <v>68</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1775,22 +1779,22 @@
         <v>68</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1813,22 +1817,22 @@
         <v>68</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1851,19 +1855,19 @@
         <v>68</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -1889,22 +1893,22 @@
         <v>68</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1927,22 +1931,22 @@
         <v>68</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1965,22 +1969,22 @@
         <v>68</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2003,22 +2007,22 @@
         <v>68</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2041,22 +2045,22 @@
         <v>68</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2079,22 +2083,22 @@
         <v>68</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2117,22 +2121,22 @@
         <v>68</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2155,22 +2159,22 @@
         <v>68</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2193,19 +2197,19 @@
         <v>68</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
@@ -2231,22 +2235,22 @@
         <v>68</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2269,22 +2273,22 @@
         <v>68</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2307,22 +2311,22 @@
         <v>68</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2345,22 +2349,22 @@
         <v>68</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>71</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2374,19 +2378,19 @@
         <v>73</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2400,19 +2404,19 @@
         <v>74</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>77</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2426,19 +2430,19 @@
         <v>75</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>77</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2452,19 +2456,26 @@
         <v>76</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>77</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C2:C43">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Khoa Công Nghệ Thông Tin"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3:G13" r:id="rId2" display="http://tuyensinh.vuted.edu.vn/bai-viet/thong-bao-tuyen-sinh-dao-tao-dai-hoc-he-chinh-quy-nam-2021.html"/>

--- a/Tuyensinh.xlsx
+++ b/Tuyensinh.xlsx
@@ -67,9 +67,6 @@
     <t>Khoa</t>
   </si>
   <si>
-    <t>Điểm 2021</t>
-  </si>
-  <si>
     <t>Học phí</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
      + 01 Phong bì ghi rõ họ tên, số điện thoại, địa chỉ của người nhận.</t>
   </si>
   <si>
-    <t>Xét học bạ</t>
-  </si>
-  <si>
     <t>Có</t>
   </si>
   <si>
@@ -634,6 +628,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hồ sơ </t>
+  </si>
+  <si>
+    <t>Xét tuyển học bạ</t>
+  </si>
+  <si>
+    <t>Điểm năm 2021</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1107,46 +1107,46 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="318.75" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>0</v>
@@ -1169,31 +1169,31 @@
         <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="10">
         <v>15</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
@@ -1201,13 +1201,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8">
         <v>7510301</v>
@@ -1216,31 +1216,31 @@
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I3" s="10">
         <v>15</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1248,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>1</v>
@@ -1263,31 +1263,31 @@
         <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="10">
         <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1295,10 +1295,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2</v>
@@ -1310,31 +1310,31 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="10">
         <v>15</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>5</v>
@@ -1357,31 +1357,31 @@
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="10">
         <v>15</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
@@ -1389,10 +1389,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>3</v>
@@ -1404,31 +1404,31 @@
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="10">
         <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1436,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -1451,31 +1451,31 @@
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="10">
         <v>15</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1483,10 +1483,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>7</v>
@@ -1498,31 +1498,31 @@
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="10">
         <v>15</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
@@ -1530,10 +1530,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
@@ -1545,31 +1545,31 @@
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="10">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1577,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
@@ -1592,31 +1592,31 @@
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="10">
         <v>15</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
@@ -1624,10 +1624,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
@@ -1639,31 +1639,31 @@
         <v>12</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="10">
         <v>15</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
@@ -1671,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
@@ -1686,31 +1686,31 @@
         <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="10">
         <v>15</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
@@ -1718,13 +1718,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="12">
         <v>6510212</v>
@@ -1733,23 +1733,23 @@
         <v>12</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1759,13 +1759,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="12">
         <v>6480201</v>
@@ -1774,26 +1774,26 @@
         <v>12</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O15" s="7"/>
     </row>
@@ -1802,41 +1802,41 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="F16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O16" s="7"/>
     </row>
@@ -1845,41 +1845,41 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O17" s="7"/>
     </row>
@@ -1888,13 +1888,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="12">
         <v>6520123</v>
@@ -1903,29 +1903,29 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
@@ -1933,10 +1933,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>2</v>
@@ -1948,23 +1948,23 @@
         <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1974,38 +1974,38 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2015,38 +2015,38 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2056,38 +2056,38 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2097,41 +2097,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O23" s="7"/>
     </row>
@@ -2140,13 +2140,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="12">
         <v>6520205</v>
@@ -2155,29 +2155,29 @@
         <v>12</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
@@ -2185,38 +2185,38 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="12">
         <v>6520201</v>
@@ -2241,26 +2241,26 @@
         <v>12</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O26" s="7"/>
     </row>
@@ -2269,13 +2269,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="12">
         <v>6480210</v>
@@ -2284,26 +2284,26 @@
         <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O27" s="7"/>
     </row>
@@ -2312,13 +2312,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="12">
         <v>6520126</v>
@@ -2327,26 +2327,26 @@
         <v>12</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="7"/>
     </row>
@@ -2355,38 +2355,38 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2396,38 +2396,38 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2437,13 +2437,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="12">
         <v>6520104</v>
@@ -2452,26 +2452,26 @@
         <v>12</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="7"/>
     </row>
@@ -2480,41 +2480,41 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O32" s="7"/>
     </row>
@@ -2523,41 +2523,41 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="F33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="7"/>
     </row>
@@ -2566,41 +2566,41 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="F34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="7"/>
     </row>
@@ -2609,41 +2609,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="F35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O35" s="7"/>
     </row>
@@ -2652,41 +2652,41 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="F36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="7"/>
     </row>
@@ -2695,38 +2695,38 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="F37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2736,13 +2736,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="12">
         <v>6510312</v>
@@ -2751,23 +2751,23 @@
         <v>12</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2777,38 +2777,38 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="F39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2818,39 +2818,39 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="R40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="300" x14ac:dyDescent="0.3">
@@ -2858,34 +2858,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K41" s="11"/>
       <c r="L41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -2895,37 +2895,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K42" s="11"/>
       <c r="L42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O42" s="7"/>
     </row>
@@ -2934,37 +2934,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O43" s="7"/>
     </row>

--- a/Tuyensinh.xlsx
+++ b/Tuyensinh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="140">
   <si>
     <t>Công nghệ kỹ thuật ô tô</t>
   </si>
@@ -611,35 +611,25 @@
     <t>Ra trường làm việc gì</t>
   </si>
   <si>
-    <t xml:space="preserve">     - Hồ sơ xét tuyển theo kết quả thi tốt nghiệp THPT năm 2021: Thí sinh nộp hồ sơ ĐKXT tại các trường THPT hoặc tại các Sở GD&amp;ĐT.
-     - Hồ sơ xét tuyển theo kết quả học tập THPT (học bạ) bao gồm:
-     + Phiếu đăng ký xét tuyển (theo mẫu, có thể tải từ Website của Nhà trường).
-     + Học bạ THPT (bản photocopy có công chứng).
-     + Bằng tốt nghiệp hoặc Giấy chứng nhận tốt nghiệp THPT tạm thời đối với thí sinh tốt nghiệp năm 2021(bản photocopy có công chứng).
-     + Chứng minh nhân dân (bản photocopy có công chứng)
-     + Các giấy tờ chứng nhận ưu tiên (nếu có).
-     + 01 Phong bì ghi rõ họ tên, số điện thoại, địa chỉ của người nhận.</t>
-  </si>
-  <si>
     <t>Có</t>
   </si>
   <si>
     <t>Xét tuyển online</t>
   </si>
   <si>
-    <t xml:space="preserve">Hồ sơ </t>
-  </si>
-  <si>
-    <t>Xét tuyển học bạ</t>
-  </si>
-  <si>
     <t>Điểm năm 2021</t>
+  </si>
+  <si>
+    <t>Xét tuyên theo học bạ</t>
+  </si>
+  <si>
+    <t>Hồ sơ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -693,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -716,12 +706,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -771,6 +800,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1076,33 +1113,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="147.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="147.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1122,22 +1159,22 @@
         <v>132</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>76</v>
@@ -1149,7 +1186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1169,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>115</v>
@@ -1181,10 +1218,10 @@
         <v>111</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>77</v>
@@ -1196,7 +1233,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1216,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>115</v>
@@ -1228,7 +1265,7 @@
         <v>111</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>70</v>
@@ -1243,7 +1280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1263,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>115</v>
@@ -1275,7 +1312,7 @@
         <v>111</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>70</v>
@@ -1290,7 +1327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1310,7 +1347,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>115</v>
@@ -1322,7 +1359,7 @@
         <v>111</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>70</v>
@@ -1337,7 +1374,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1357,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>115</v>
@@ -1369,7 +1406,7 @@
         <v>111</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>70</v>
@@ -1384,7 +1421,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1404,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>115</v>
@@ -1416,7 +1453,7 @@
         <v>111</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>70</v>
@@ -1431,7 +1468,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="378" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1451,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>115</v>
@@ -1463,7 +1500,7 @@
         <v>111</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>70</v>
@@ -1478,7 +1515,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1498,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>115</v>
@@ -1510,7 +1547,7 @@
         <v>111</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>70</v>
@@ -1525,7 +1562,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1545,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>115</v>
@@ -1557,7 +1594,7 @@
         <v>111</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>70</v>
@@ -1572,7 +1609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1592,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>115</v>
@@ -1604,7 +1641,7 @@
         <v>111</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
@@ -1619,7 +1656,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1639,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>115</v>
@@ -1651,7 +1688,7 @@
         <v>111</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>70</v>
@@ -1666,7 +1703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="342" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1686,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>115</v>
@@ -1698,7 +1735,7 @@
         <v>111</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
@@ -1713,7 +1750,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1733,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>116</v>
@@ -1754,7 +1791,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1774,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>116</v>
@@ -1797,7 +1834,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1817,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>116</v>
@@ -1840,7 +1877,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1860,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>116</v>
@@ -1883,7 +1920,7 @@
       </c>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1903,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>116</v>
@@ -1928,7 +1965,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1948,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>116</v>
@@ -1969,7 +2006,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1989,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>116</v>
@@ -2010,7 +2047,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2030,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>116</v>
@@ -2051,7 +2088,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2071,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>116</v>
@@ -2092,7 +2129,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2112,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>116</v>
@@ -2135,7 +2172,7 @@
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2155,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>116</v>
@@ -2180,7 +2217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2200,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>116</v>
@@ -2221,7 +2258,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2241,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>116</v>
@@ -2264,7 +2301,7 @@
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2284,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>116</v>
@@ -2307,7 +2344,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2327,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>116</v>
@@ -2350,7 +2387,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2370,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>116</v>
@@ -2391,7 +2428,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2411,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>116</v>
@@ -2432,7 +2469,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2452,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>116</v>
@@ -2475,7 +2512,7 @@
       </c>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2495,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>116</v>
@@ -2518,7 +2555,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2538,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>116</v>
@@ -2561,7 +2598,7 @@
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2581,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>116</v>
@@ -2604,7 +2641,7 @@
       </c>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2624,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>116</v>
@@ -2647,7 +2684,7 @@
       </c>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2667,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>116</v>
@@ -2690,7 +2727,7 @@
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>116</v>
@@ -2731,7 +2768,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2751,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>116</v>
@@ -2772,7 +2809,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="216" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2792,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>116</v>
@@ -2813,7 +2850,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:18" ht="300" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="270" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2830,9 +2867,7 @@
       <c r="F40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G40" s="8"/>
       <c r="H40" s="17" t="s">
         <v>117</v>
       </c>
@@ -2849,11 +2884,11 @@
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="R40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="300" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="270" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2870,9 +2905,7 @@
       <c r="F41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G41" s="8"/>
       <c r="H41" s="17" t="s">
         <v>117</v>
       </c>
@@ -2890,7 +2923,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:18" ht="300" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="270" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2907,9 +2940,7 @@
       <c r="F42" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G42" s="19"/>
       <c r="H42" s="17" t="s">
         <v>117</v>
       </c>
@@ -2929,7 +2960,7 @@
       </c>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="300" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="270" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2943,13 +2974,11 @@
         <v>107</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="17" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="22" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="14"/>
@@ -2968,11 +2997,11 @@
       </c>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G45" s="8"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G45" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B45"/>

--- a/Tuyensinh.xlsx
+++ b/Tuyensinh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,6 @@
 f. 04 ảnh hồ sơ cỡ 3 x 4 cm; 02 phong bì ghi rõ địa chỉ liên lạc</t>
   </si>
   <si>
-    <t>Thời gian đào tạo</t>
-  </si>
-  <si>
     <t>Thời gian đào tạo TB từ 3,5-4 năm</t>
   </si>
   <si>
@@ -625,11 +622,14 @@
   <si>
     <t>Hồ sơ</t>
   </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1115,31 +1115,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="147.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="147.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1153,40 +1153,40 @@
         <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="N1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1206,34 +1206,34 @@
         <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="10">
         <v>15</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1253,34 +1253,34 @@
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10">
         <v>15</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1300,34 +1300,34 @@
         <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="10">
         <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1347,34 +1347,34 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="10">
         <v>15</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1394,34 +1394,34 @@
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="10">
         <v>15</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1441,34 +1441,34 @@
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="10">
         <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="378" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1488,34 +1488,34 @@
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="10">
         <v>15</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1535,34 +1535,34 @@
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="10">
         <v>15</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1582,34 +1582,34 @@
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="10">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1629,34 +1629,34 @@
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" s="10">
         <v>15</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="409.6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1676,34 +1676,34 @@
         <v>12</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I12" s="10">
         <v>15</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="342" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1723,34 +1723,34 @@
         <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" s="10">
         <v>15</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1770,28 +1770,28 @@
         <v>12</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1811,30 +1811,30 @@
         <v>12</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1854,30 +1854,30 @@
         <v>12</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1897,30 +1897,30 @@
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1940,32 +1940,32 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1985,28 +1985,28 @@
         <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2026,28 +2026,28 @@
         <v>12</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2067,28 +2067,28 @@
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2108,28 +2108,28 @@
         <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2149,30 +2149,30 @@
         <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2192,32 +2192,32 @@
         <v>12</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2237,28 +2237,28 @@
         <v>12</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2278,30 +2278,30 @@
         <v>12</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2321,30 +2321,30 @@
         <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2364,30 +2364,30 @@
         <v>12</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2407,28 +2407,28 @@
         <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2448,28 +2448,28 @@
         <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2489,30 +2489,30 @@
         <v>12</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2532,30 +2532,30 @@
         <v>12</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2575,30 +2575,30 @@
         <v>12</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2618,30 +2618,30 @@
         <v>12</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2661,30 +2661,30 @@
         <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2704,30 +2704,30 @@
         <v>12</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2747,28 +2747,28 @@
         <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:17" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2788,28 +2788,28 @@
         <v>12</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:17" ht="216" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2829,28 +2829,28 @@
         <v>12</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:17" ht="270" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="300" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2869,26 +2869,26 @@
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="Q40" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="270" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="300" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2907,23 +2907,23 @@
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K41" s="11"/>
       <c r="L41" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="270" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="300" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K42" s="11"/>
       <c r="L42" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:17" ht="270" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="300" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="21" t="s">
@@ -2979,28 +2979,28 @@
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G44" s="20"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G45" s="20"/>
     </row>
   </sheetData>
